--- a/3_Measurements/Results.xlsx
+++ b/3_Measurements/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -20949,10 +20949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20979,13 +20979,6 @@
         <v>86</v>
       </c>
       <c r="D1" s="51"/>
-      <c r="H1" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="52" t="s">
         <v>5</v>
@@ -21003,15 +20996,6 @@
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
@@ -21035,15 +21019,6 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
       <c r="O3" t="s">
         <v>8</v>
       </c>
@@ -21067,15 +21042,6 @@
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="O4" s="4" t="s">
         <v>9</v>
       </c>
@@ -21107,6 +21073,48 @@
       </c>
       <c r="Q5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="51"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27220,7 +27228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BE263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
@@ -34983,6 +34991,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="M1:Z1"/>
+    <mergeCell ref="M18:Z18"/>
+    <mergeCell ref="M34:Z34"/>
+    <mergeCell ref="M51:Z51"/>
+    <mergeCell ref="M67:Z67"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="Q71:R71"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="S38:T38"/>
@@ -34999,45 +35046,6 @@
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="T29:U29"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="M1:Z1"/>
-    <mergeCell ref="M18:Z18"/>
-    <mergeCell ref="M34:Z34"/>
-    <mergeCell ref="M51:Z51"/>
-    <mergeCell ref="M67:Z67"/>
-    <mergeCell ref="T75:U75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
